--- a/biology/Botanique/Tillandsia_acuminata/Tillandsia_acuminata.xlsx
+++ b/biology/Botanique/Tillandsia_acuminata/Tillandsia_acuminata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia acuminata est une espèce de plantes de la famille des Bromeliaceae.
 L'épithète acuminata, qui signifie « acuminée » c'est-à-dire se terminant brutalement en pointe plus ou moins allongée, est une référence aux pointes foliaires.
@@ -512,13 +524,15 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia acuminata L.B.Sm., in Contr. U.S. Natl. Herb. 29: 434, fig. 41a-c (1951)
-Diagnose originale[1] :
+Diagnose originale :
 « A T. rubella Baker, cui affinis, foliis majoribus, ad apicem versus acuminatis, inflorescentia ample tripinnatim paniculata, bracteis florigeris laevibus differt. »
 Type :
-leg. M.B. &amp; R. Foster &amp; E. Smith, n° 1402, 1946-08-03 ; « rain forest in the mountains above Hiacenda Cincinnati, Santa Marta, Department of Magdalena, Colombia, altitude 2100 m »[1] ; Holotypus GH (Gray Herbarium) (GH 29396)
+leg. M.B. &amp; R. Foster &amp; E. Smith, n° 1402, 1946-08-03 ; « rain forest in the mountains above Hiacenda Cincinnati, Santa Marta, Department of Magdalena, Colombia, altitude 2100 m » ; Holotypus GH (Gray Herbarium) (GH 29396)
 leg. M.B. &amp; R. Foster &amp; E. Smith, n° 1406, 1946-08-03 ; Syntypus GH (Gray Herbarium) (GH 29396)</t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia acuminata est une plante vivace herbacée, épiphyte[1], de grande taille, atteignant 1,50 à 2 m de haut lors de la floraison[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia acuminata est une plante vivace herbacée, épiphyte, de grande taille, atteignant 1,50 à 2 m de haut lors de la floraison.
 </t>
         </is>
       </c>
@@ -580,10 +596,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distribution
-L'espèce se rencontre en à proximité de Magdalena en Colombie[1], en Équateur et en Bolivie[2].
-Habitat
-L'espèce se rencontre dans les forêts pluviales[1] vers 2 100 mètres d'altitude[1].
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre en à proximité de Magdalena en Colombie, en Équateur et en Bolivie.
 </t>
         </is>
       </c>
@@ -609,12 +628,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Distribution et habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre dans les forêts pluviales vers 2 100 mètres d'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tillandsia_acuminata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_acuminata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia acuminata semble rarissime, sinon inconnue, en culture. Les indications données dans Roguenant[3] (température modérée, mi-ombre et humidité modérée) semblent déduites de l'habitat d'origine de la plante (forêts de montagne), plus que de l'expérience de la plante elle-même.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia acuminata semble rarissime, sinon inconnue, en culture. Les indications données dans Roguenant (température modérée, mi-ombre et humidité modérée) semblent déduites de l'habitat d'origine de la plante (forêts de montagne), plus que de l'expérience de la plante elle-même.
 </t>
         </is>
       </c>
